--- a/custom/tpl/AP-1.xlsx
+++ b/custom/tpl/AP-1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D7123-8D86-46FC-B7AC-1457CAB2A057}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DCDAE4-9B55-44EB-8FFF-E96A7C589A77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32770" yWindow="32770" windowWidth="9660" windowHeight="5490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Worksheet!$7:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Worksheet!$7:$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>KD REKENING</t>
-  </si>
-  <si>
     <t>KEGIATAN</t>
   </si>
   <si>
@@ -87,13 +84,17 @@
     <t>Form AP-1</t>
   </si>
   <si>
-    <t>NAMA ORGANISASI</t>
-  </si>
-  <si>
     <t>: BAGIAN ADMINISTRASI PEMBANGUNAN</t>
   </si>
   <si>
     <t>DBHCHT</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>KODE
+REKENING</t>
   </si>
 </sst>
 </file>
@@ -321,77 +322,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -827,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -852,7 +854,7 @@
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -877,7 +879,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -902,7 +904,7 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -926,51 +928,51 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -978,7 +980,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -997,45 +999,45 @@
       <c r="B8" s="14"/>
       <c r="C8" s="23"/>
       <c r="D8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="I8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U8" s="14"/>
     </row>
@@ -1050,64 +1052,129 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="P9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="R9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="T9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10">
+        <v>11</v>
+      </c>
+      <c r="L10" s="10">
+        <v>12</v>
+      </c>
+      <c r="M10" s="10">
+        <v>13</v>
+      </c>
+      <c r="N10" s="10">
+        <v>14</v>
+      </c>
+      <c r="O10" s="10">
+        <v>15</v>
+      </c>
+      <c r="P10" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>17</v>
+      </c>
+      <c r="R10" s="10">
+        <v>18</v>
+      </c>
+      <c r="S10" s="10">
+        <v>19</v>
+      </c>
+      <c r="T10" s="10">
+        <v>20</v>
+      </c>
+      <c r="U10" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1135,8 +1202,8 @@
     <mergeCell ref="L8:M8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.31496062992125984"/>
-  <pageSetup paperSize="10000" scale="54" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.31496062992125984"/>
+  <pageSetup paperSize="10000" scale="55" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;12&amp;P</oddFooter>
   </headerFooter>
